--- a/src/SO_Input_Example.xlsx
+++ b/src/SO_Input_Example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\McRae\Source\bundle-optimization-new\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97740A09-0CAA-4161-8F00-FAE8204E7D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF4E9E0-AA59-4EE6-A53C-F87B8AB60E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -591,10 +591,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -921,7 +917,7 @@
   <dimension ref="A1:AP31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
